--- a/biology/Botanique/Myrocarpus_frondosus/Myrocarpus_frondosus.xlsx
+++ b/biology/Botanique/Myrocarpus_frondosus/Myrocarpus_frondosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Myrocarpus frondosus,  Incienso,  Yvyrá payé,  est un arbre de la famille des légumineuses, sous-famille des faboideae qui peut atteindre jusqu'à 30 mètres.
 </t>
@@ -511,7 +523,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique du nord-est, sud-est et sud du Brésil, de l'est du Paraguay, et du nord-est de l'Argentine. C'est une plante aromatique et mélifère, au bois rosâtre.
 Ses fleurs sont blanches et ses fruits oblongs. Il est cultivé principalement pour son bois noble et pour ses essences, utilisées en parfumerie (son nom hispano-américain incienso signifie encens), également pour son huile obtenu par incision du tronc, et pour l'utilisation en médecine de l'écorce, des feuilles et des fruits.
@@ -543,7 +557,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Taille : 10-30 m
 Diamètre : 60-80 cm
@@ -578,11 +594,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Leptolobium punctatum Benth.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leptolobium punctatum Benth.
 Myrocarpus paraguariensis Hallier f.
-[1]</t>
+</t>
         </is>
       </c>
     </row>
